--- a/data/example/Power_Tec.xlsx
+++ b/data/example/Power_Tec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Auer\Local\Code\LEGO_internal\examples\001_Base_Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C043E-3D36-4630-85A8-AAE7621A07E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D846F-72A8-4773-B067-FAC1CC39C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-17544" windowWidth="30936" windowHeight="16776" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36210" yWindow="1650" windowWidth="28800" windowHeight="15240" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Tec" sheetId="112" r:id="rId1"/>
@@ -292,11 +292,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
+    <cellStyle name="Ausgabe" xfId="2" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
     <cellStyle name="Hervorhebung" xfId="3" xr:uid="{8678E36F-C265-4DFE-9FC6-523CB5A8AE55}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{18929256-C3F4-489D-8BCE-E323A983834F}"/>
-    <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Standard 2" xfId="5" xr:uid="{5DF4A97E-8529-4A9B-8CDD-1ED3E5DC1118}"/>
     <cellStyle name="Standard 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Standard 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
@@ -621,22 +621,22 @@
   <dimension ref="A1:AKU14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="983" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:983" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:983" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:983" x14ac:dyDescent="0.45">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -1621,7 +1621,7 @@
       <c r="AKT2"/>
       <c r="AKU2"/>
     </row>
-    <row r="3" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="AKT3"/>
       <c r="AKU3"/>
     </row>
-    <row r="4" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3593,52 +3593,52 @@
       <c r="AKT4"/>
       <c r="AKU4"/>
     </row>
-    <row r="5" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:983" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:983" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -3651,9 +3651,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3803,26 +3806,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3846,9 +3838,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>